--- a/biology/Botanique/Pachyrhizus_ahipa/Pachyrhizus_ahipa.xlsx
+++ b/biology/Botanique/Pachyrhizus_ahipa/Pachyrhizus_ahipa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pachyrhizus ahipa est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Amérique du Sud. C'est une plante herbacée vivace qui produit une grosse racine tubérisée riche en amidon. Cette racine est comestible, tandis que le reste de la plante contient des substances qui peuvent être toxiques pour l'homme, notamment de la roténone qui est un insecticide[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pachyrhizus ahipa est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Amérique du Sud. C'est une plante herbacée vivace qui produit une grosse racine tubérisée riche en amidon. Cette racine est comestible, tandis que le reste de la plante contient des substances qui peuvent être toxiques pour l'homme, notamment de la roténone qui est un insecticide.
 </t>
         </is>
       </c>
@@ -513,13 +525,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Plants of the World online (POWO)                (21 janvier 2022)[3] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World online (POWO)                (21 janvier 2022) :
 Dolichos ahipa Wedd.
 Pachyrhizus ahipa var. albiflora Parodi
-Pachyrhizus ahipa var. violacea Parodi
-Liste des variétés
-Selon Tropicos                                           (21 janvier 2022)[4] (Attention liste brute contenant possiblement des synonymes) :
+Pachyrhizus ahipa var. violacea Parodi</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pachyrhizus_ahipa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pachyrhizus_ahipa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (21 janvier 2022) (Attention liste brute contenant possiblement des synonymes) :
 Pachyrhizus ahipa var. albifora Parodi
 Pachyrhizus ahipa var. violacea Parodi</t>
         </is>
